--- a/decArgo_doc/decoder_user_manual/_CoriolisArgoFloatVersions_20190920.xlsx
+++ b/decArgo_doc/decoder_user_manual/_CoriolisArgoFloatVersions_20190920.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Apex floats'!$A$2:$I$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NKE floats'!$A$2:$I$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NKE floats'!$A$2:$I$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Apex floats'!$A$2:$H$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'NKE floats'!$A$2:$H$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'NKE floats'!$A$1:$I$84</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0">
+    <comment ref="B55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="368">
   <si>
     <t>Transmission (A/I)</t>
   </si>
@@ -1225,6 +1225,15 @@
   </si>
   <si>
     <t>Update date: 09/20/2019</t>
+  </si>
+  <si>
+    <t>Next version after 5.65 version with software version YLA5608A14 (PM18 and PT35 added)</t>
+  </si>
+  <si>
+    <t>YLA5608A14</t>
+  </si>
+  <si>
+    <t>221 alone</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1721,12 +1730,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2111,6 +2129,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2426,11 +2447,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3785,38 +3806,40 @@
       <c r="A50" s="13">
         <v>48</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="13">
-        <v>207</v>
+      <c r="B50" s="62">
+        <v>5.67</v>
+      </c>
+      <c r="C50" s="28">
+        <v>221</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="13" t="s">
+      <c r="E50" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="13"/>
+      <c r="H50" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C51" s="13">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>35</v>
@@ -3831,21 +3854,19 @@
         <v>41</v>
       </c>
       <c r="H51" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>279</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="13">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>35</v>
@@ -3860,25 +3881,27 @@
         <v>41</v>
       </c>
       <c r="H52" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>51</v>
       </c>
-      <c r="B53" s="62">
-        <v>5.74</v>
-      </c>
-      <c r="C53" s="69">
-        <v>213</v>
+      <c r="B53" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="13">
+        <v>208</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>47</v>
@@ -3887,27 +3910,25 @@
         <v>41</v>
       </c>
       <c r="H53" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>281</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>52</v>
       </c>
-      <c r="B54" s="73">
-        <v>5.75</v>
+      <c r="B54" s="62">
+        <v>5.74</v>
       </c>
       <c r="C54" s="69">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>47</v>
@@ -3915,40 +3936,40 @@
       <c r="G54" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H54" s="55" t="s">
-        <v>288</v>
+      <c r="H54" s="57" t="s">
+        <v>233</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>53</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="13">
-        <v>209</v>
+      <c r="B55" s="73">
+        <v>5.75</v>
+      </c>
+      <c r="C55" s="69">
+        <v>214</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H55" s="55" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3956,66 +3977,66 @@
         <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C56" s="13">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="I56" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="H56" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="C57" s="13">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>128</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H57" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1.08</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="13">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>35</v>
@@ -4030,7 +4051,7 @@
         <v>43</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I58" s="5">
         <v>1.08</v>
@@ -4041,28 +4062,28 @@
         <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="C59" s="13">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>128</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>282</v>
+        <v>43</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1.08</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4070,10 +4091,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C60" s="13">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>71</v>
@@ -4088,10 +4109,10 @@
         <v>41</v>
       </c>
       <c r="H60" s="58" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4099,10 +4120,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="13">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>71</v>
@@ -4117,10 +4138,10 @@
         <v>41</v>
       </c>
       <c r="H61" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4128,10 +4149,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="13">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>71</v>
@@ -4146,10 +4167,10 @@
         <v>41</v>
       </c>
       <c r="H62" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="I62" s="5">
-        <v>1.06</v>
+        <v>126</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4157,10 +4178,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="C63" s="13">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>71</v>
@@ -4175,27 +4196,27 @@
         <v>41</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="I63" s="5">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>62</v>
       </c>
-      <c r="B64" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="C64" s="79">
-        <v>111</v>
+      <c r="B64" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="13">
+        <v>110</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>128</v>
@@ -4203,28 +4224,28 @@
       <c r="G64" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="I64" s="82" t="s">
-        <v>349</v>
+      <c r="H64" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1.07</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>63</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C65" s="13">
-        <v>112</v>
+      <c r="B65" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="79">
+        <v>111</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>128</v>
@@ -4232,28 +4253,28 @@
       <c r="G65" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>283</v>
+      <c r="H65" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="I65" s="82" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>64</v>
       </c>
-      <c r="B66" s="110">
-        <v>6.12</v>
-      </c>
-      <c r="C66" s="79">
-        <v>113</v>
+      <c r="B66" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" s="13">
+        <v>112</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>128</v>
@@ -4261,95 +4282,95 @@
       <c r="G66" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H66" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="I66" s="82"/>
+      <c r="H66" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>65</v>
       </c>
-      <c r="B67" s="80" t="s">
-        <v>221</v>
+      <c r="B67" s="110">
+        <v>6.12</v>
       </c>
       <c r="C67" s="79">
-        <v>121</v>
-      </c>
-      <c r="D67" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="F67" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="79" t="s">
+      <c r="G67" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H67" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="I67" s="82" t="s">
-        <v>305</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I67" s="82"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>66</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C68" s="13">
-        <v>122</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="B68" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="79">
+        <v>121</v>
+      </c>
+      <c r="D68" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="I68" s="89" t="s">
-        <v>304</v>
+      <c r="G68" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="I68" s="82" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>67</v>
       </c>
-      <c r="B69" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="C69" s="79">
-        <v>123</v>
-      </c>
-      <c r="D69" s="79" t="s">
+      <c r="B69" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="13">
+        <v>122</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E69" s="81" t="s">
+      <c r="E69" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F69" s="82" t="s">
+      <c r="F69" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G69" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="I69" s="109" t="s">
+      <c r="G69" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="I69" s="89" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4358,10 +4379,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C70" s="79">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="79" t="s">
         <v>222</v>
@@ -4376,205 +4397,211 @@
         <v>41</v>
       </c>
       <c r="H70" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" s="109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>69</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C71" s="79">
+        <v>124</v>
+      </c>
+      <c r="D71" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="I70" s="109" t="s">
+      <c r="I71" s="109" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
-        <v>69</v>
-      </c>
-      <c r="B71" s="17" t="s">
+    <row r="72" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
+        <v>70</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C72" s="16">
         <v>125</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D72" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E72" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F72" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G71" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="59" t="s">
+      <c r="G72" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="I71" s="74" t="s">
+      <c r="I72" s="74" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="104" t="s">
+    <row r="73" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="104" t="s">
+      <c r="C74" s="61"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="H73" s="60" t="s">
+      <c r="H74" s="60" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="24" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="E74" s="24" t="s">
+      <c r="C75" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="E75" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="G74" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="H74" s="60" t="s">
+      <c r="F75" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G75" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H75" s="60" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="H75" s="60" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="D76" s="46" t="s">
-        <v>319</v>
+      <c r="D76" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="H76" s="60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>188</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="H77" s="60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="25" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C78" s="46" t="s">
         <v>98</v>
       </c>
       <c r="D78" s="46" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H78" s="60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="C79" s="46" t="s">
         <v>99</v>
       </c>
       <c r="D79" s="46" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>135</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H79" s="60" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="46" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="46" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>137</v>
@@ -4583,12 +4610,12 @@
         <v>101</v>
       </c>
       <c r="H80" s="60" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="46" t="s">
-        <v>186</v>
+      <c r="B81" s="25" t="s">
+        <v>154</v>
       </c>
       <c r="C81" s="46" t="s">
         <v>136</v>
@@ -4596,8 +4623,8 @@
       <c r="D81" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="46" t="s">
-        <v>331</v>
+      <c r="E81" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>189</v>
@@ -4605,63 +4632,78 @@
       <c r="G81" s="15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" s="100" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="68" t="s">
+      <c r="H81" s="60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="68" t="s">
+      <c r="F82" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="F82" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="G82" s="18"/>
-      <c r="H82" s="101"/>
-    </row>
-    <row r="83" spans="1:8" s="100" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="97"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
-      <c r="G83" s="99"/>
-      <c r="H83" s="102"/>
-    </row>
-    <row r="84" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="97"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="98"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="102"/>
+      <c r="F83" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" s="100" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="81"/>
+      <c r="E84" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="101"/>
     </row>
     <row r="85" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="97"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="98"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="136"/>
       <c r="E85" s="99"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="97"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
       <c r="H85" s="102"/>
     </row>
     <row r="86" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="97"/>
-      <c r="B86" s="103"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="99"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="99"/>
       <c r="F86" s="97"/>
       <c r="G86" s="97"/>
@@ -4669,21 +4711,21 @@
     </row>
     <row r="87" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="97"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="99"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="97"/>
       <c r="G87" s="97"/>
       <c r="H87" s="102"/>
     </row>
     <row r="88" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="97"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="95"/>
-      <c r="F88" s="99"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="97"/>
       <c r="G88" s="97"/>
       <c r="H88" s="102"/>
     </row>
@@ -4710,7 +4752,7 @@
     <row r="91" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="97"/>
       <c r="B91" s="95"/>
-      <c r="C91" s="99"/>
+      <c r="C91" s="98"/>
       <c r="D91" s="97"/>
       <c r="E91" s="95"/>
       <c r="F91" s="99"/>
@@ -4720,7 +4762,7 @@
     <row r="92" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="97"/>
       <c r="B92" s="95"/>
-      <c r="C92" s="99"/>
+      <c r="C92" s="98"/>
       <c r="D92" s="97"/>
       <c r="E92" s="95"/>
       <c r="F92" s="99"/>
@@ -4730,7 +4772,7 @@
     <row r="93" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="97"/>
       <c r="B93" s="95"/>
-      <c r="C93" s="98"/>
+      <c r="C93" s="99"/>
       <c r="D93" s="97"/>
       <c r="E93" s="95"/>
       <c r="F93" s="99"/>
@@ -4739,10 +4781,10 @@
     </row>
     <row r="94" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="97"/>
-      <c r="B94" s="98"/>
-      <c r="C94" s="98"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="97"/>
-      <c r="E94" s="98"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="99"/>
       <c r="G94" s="97"/>
       <c r="H94" s="102"/>
@@ -4752,17 +4794,17 @@
       <c r="B95" s="95"/>
       <c r="C95" s="98"/>
       <c r="D95" s="97"/>
-      <c r="E95" s="99"/>
+      <c r="E95" s="95"/>
       <c r="F95" s="99"/>
       <c r="G95" s="97"/>
       <c r="H95" s="102"/>
     </row>
     <row r="96" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="97"/>
-      <c r="B96" s="95"/>
+      <c r="B96" s="98"/>
       <c r="C96" s="98"/>
       <c r="D96" s="97"/>
-      <c r="E96" s="99"/>
+      <c r="E96" s="98"/>
       <c r="F96" s="99"/>
       <c r="G96" s="97"/>
       <c r="H96" s="102"/>
@@ -4773,45 +4815,64 @@
       <c r="C97" s="98"/>
       <c r="D97" s="97"/>
       <c r="E97" s="99"/>
-      <c r="F97" s="97"/>
+      <c r="F97" s="99"/>
       <c r="G97" s="97"/>
       <c r="H97" s="102"/>
     </row>
     <row r="98" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="97"/>
-      <c r="B98" s="98"/>
-      <c r="C98" s="99"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="98"/>
       <c r="D98" s="97"/>
       <c r="E98" s="99"/>
-      <c r="F98" s="97"/>
+      <c r="F98" s="99"/>
       <c r="G98" s="97"/>
       <c r="H98" s="102"/>
     </row>
     <row r="99" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="97"/>
-      <c r="B99" s="103"/>
-      <c r="C99" s="97"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="98"/>
       <c r="D99" s="97"/>
       <c r="E99" s="99"/>
       <c r="F99" s="97"/>
       <c r="G99" s="97"/>
       <c r="H99" s="102"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="97"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="99"/>
       <c r="D100" s="97"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="102"/>
+    </row>
+    <row r="101" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="97"/>
+      <c r="B101" s="103"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="97"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="102"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D102" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I71"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="8" scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B3:B4 B6:B33 B50:B52 B42:B47 B55:B63 B65 B36:B37" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B4 B6:B33 B51:B53 B42:B47 B56:B64 B66 B36:B37" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
